--- a/Data/Scores.xlsx
+++ b/Data/Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da02ac3bab04d9c0/Documents/Paresley/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="8_{2EAD1506-4EA6-4B40-8F33-8570EE6731CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94AB25F9-14A5-4B09-879E-7C9D75CAC847}"/>
+  <xr:revisionPtr revIDLastSave="706" documentId="8_{2EAD1506-4EA6-4B40-8F33-8570EE6731CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024E5265-3157-4CE1-BF0D-7D352EF8B96F}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="2535" windowWidth="16875" windowHeight="10522" activeTab="1" xr2:uid="{F197B796-CF8D-4FAA-B522-1A8DE97E8EEA}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Score" sheetId="1" r:id="rId1"/>
     <sheet name="Inventory" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Score!$A$1:$G$179</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="339">
   <si>
     <t>id</t>
   </si>
@@ -368,6 +371,690 @@
   </si>
   <si>
     <t>Rescue The Freshmen</t>
+  </si>
+  <si>
+    <t>Leather jacket</t>
+  </si>
+  <si>
+    <t>Slade’s keys</t>
+  </si>
+  <si>
+    <t>Newspaper</t>
+  </si>
+  <si>
+    <t>Matchbook</t>
+  </si>
+  <si>
+    <t>baseball bat</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>$100 bill</t>
+  </si>
+  <si>
+    <t>Driver’s license</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Switchblade</t>
+  </si>
+  <si>
+    <t>Box of donuts</t>
+  </si>
+  <si>
+    <t>O’Brien’s key ring</t>
+  </si>
+  <si>
+    <t>Audiotape reel</t>
+  </si>
+  <si>
+    <t>Detective Chang’s badge</t>
+  </si>
+  <si>
+    <t>Beretta 92S</t>
+  </si>
+  <si>
+    <t>Walther PPK</t>
+  </si>
+  <si>
+    <t>H&amp;K MP5</t>
+  </si>
+  <si>
+    <t>Candy bar</t>
+  </si>
+  <si>
+    <t>Porsche keys</t>
+  </si>
+  <si>
+    <t>Colt .45</t>
+  </si>
+  <si>
+    <t>Attaché case</t>
+  </si>
+  <si>
+    <t>Dangertown Beatdown</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>Jack Slade</t>
+  </si>
+  <si>
+    <t>Jetta Chang</t>
+  </si>
+  <si>
+    <t>Play the message on the answering machine</t>
+  </si>
+  <si>
+    <t>Read the newspaper</t>
+  </si>
+  <si>
+    <t>Refuse Rocco’s bribe</t>
+  </si>
+  <si>
+    <t>Knock out Rocco with the kettle</t>
+  </si>
+  <si>
+    <t>Find out Boss D’s location from Cat Marco</t>
+  </si>
+  <si>
+    <t>Get the warehouse number from Rabbit</t>
+  </si>
+  <si>
+    <t>Beat up Cutter</t>
+  </si>
+  <si>
+    <t>Get patched up by Gheorghe</t>
+  </si>
+  <si>
+    <t>Drink some coffee at Pixel City Café</t>
+  </si>
+  <si>
+    <t>Give O’Brien the box of donuts</t>
+  </si>
+  <si>
+    <t>Retrieve the audiotape from the evidence locker</t>
+  </si>
+  <si>
+    <t>Free Jetta Chang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help Knockout defeat the warehouse goons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save Slade by getting him to the ambulance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get your badge and gun from the Chief </t>
+  </si>
+  <si>
+    <t>Defeat Rocco Falcone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the Penthouse suite of Pacific Towers </t>
+  </si>
+  <si>
+    <t>Kill Boss D</t>
+  </si>
+  <si>
+    <t>Arrest Boss D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish without saving </t>
+  </si>
+  <si>
+    <t>Jungle Adventure</t>
+  </si>
+  <si>
+    <t>Finishing without saving</t>
+  </si>
+  <si>
+    <t>Lighter</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Beaded skirt</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Old bones</t>
+  </si>
+  <si>
+    <t>Tiger fang</t>
+  </si>
+  <si>
+    <t>Ceremonial spear</t>
+  </si>
+  <si>
+    <t>Necklace</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Gold skull</t>
+  </si>
+  <si>
+    <t>Pumpkin Town</t>
+  </si>
+  <si>
+    <t>Trick-or-treat bag</t>
+  </si>
+  <si>
+    <t>Witch costume (broom)</t>
+  </si>
+  <si>
+    <t>Pirate costume (hook hand)</t>
+  </si>
+  <si>
+    <t>Ghost costume</t>
+  </si>
+  <si>
+    <t>Bubble gum</t>
+  </si>
+  <si>
+    <t>Funland coin</t>
+  </si>
+  <si>
+    <t>Candy corn</t>
+  </si>
+  <si>
+    <t>Jawbreaker</t>
+  </si>
+  <si>
+    <t>ID badge</t>
+  </si>
+  <si>
+    <t>Chocolate chip cookies</t>
+  </si>
+  <si>
+    <t>Gummi worms</t>
+  </si>
+  <si>
+    <t>Black licorice whips</t>
+  </si>
+  <si>
+    <t>Dark chocolate bark and twigs</t>
+  </si>
+  <si>
+    <t>Butterscotch</t>
+  </si>
+  <si>
+    <t>Pixie dust</t>
+  </si>
+  <si>
+    <t>Cotton candy</t>
+  </si>
+  <si>
+    <t>Poisoned apple</t>
+  </si>
+  <si>
+    <t>Beanbag</t>
+  </si>
+  <si>
+    <t>Circus peanuts</t>
+  </si>
+  <si>
+    <t>Hobo costume (bindle contains tin of beans and hobo nickel)</t>
+  </si>
+  <si>
+    <t>Empty bucket</t>
+  </si>
+  <si>
+    <t>Bucket of molasses</t>
+  </si>
+  <si>
+    <t>Bucket of milk</t>
+  </si>
+  <si>
+    <t>Candy cane</t>
+  </si>
+  <si>
+    <t>Gingerbread person</t>
+  </si>
+  <si>
+    <t>Marshmallow chicks</t>
+  </si>
+  <si>
+    <t>Pickaxe</t>
+  </si>
+  <si>
+    <t>Rock candy</t>
+  </si>
+  <si>
+    <t>Pitchfork</t>
+  </si>
+  <si>
+    <t>Cinnamon hearts</t>
+  </si>
+  <si>
+    <t>Yum-Yum Candy Exploding Jawbreaker</t>
+  </si>
+  <si>
+    <t>Peppermint candy cane</t>
+  </si>
+  <si>
+    <t>Blue rock candy</t>
+  </si>
+  <si>
+    <t>Red-hot cinnamon hearts</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Pitfall</t>
+  </si>
+  <si>
+    <t>Not being kicked off the Ghost Train</t>
+  </si>
+  <si>
+    <t>Not being kicked out of Pumpkin Town Hell</t>
+  </si>
+  <si>
+    <t>Not taking an emergency trip to the Graveyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return from Pumpkin Town </t>
+  </si>
+  <si>
+    <t>Boots (worn)</t>
+  </si>
+  <si>
+    <t>Badge</t>
+  </si>
+  <si>
+    <t>Pistol and holster</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Bowie knife</t>
+  </si>
+  <si>
+    <t>Wanted poster/treasure map</t>
+  </si>
+  <si>
+    <t>Rucksack</t>
+  </si>
+  <si>
+    <t>Flint and steel</t>
+  </si>
+  <si>
+    <t>Bedroll</t>
+  </si>
+  <si>
+    <t>Tin of beans</t>
+  </si>
+  <si>
+    <t>Canteen of water</t>
+  </si>
+  <si>
+    <t>Cactus water</t>
+  </si>
+  <si>
+    <t>Tinder</t>
+  </si>
+  <si>
+    <t>Firewood</t>
+  </si>
+  <si>
+    <t>Dead rattlesnake</t>
+  </si>
+  <si>
+    <t>Pouch of gold nuggets</t>
+  </si>
+  <si>
+    <t>Snake oil</t>
+  </si>
+  <si>
+    <t>Six-Gun Showdown</t>
+  </si>
+  <si>
+    <t>Strap on your pistol and holster</t>
+  </si>
+  <si>
+    <t>Order a bottle of sarsaparilla</t>
+  </si>
+  <si>
+    <t>Ante your badge in the poker game</t>
+  </si>
+  <si>
+    <t>Win the poker game with two pair</t>
+  </si>
+  <si>
+    <t>Win the poker game with a full house</t>
+  </si>
+  <si>
+    <t>Find the treasure map</t>
+  </si>
+  <si>
+    <t>Procure some supplies from Mariah Cooper</t>
+  </si>
+  <si>
+    <t>Cut open the cactus to get more water</t>
+  </si>
+  <si>
+    <t>Check your boot for snakes</t>
+  </si>
+  <si>
+    <t>Kill the rattlesnake</t>
+  </si>
+  <si>
+    <t>Find the buried pouch of gold nuggets</t>
+  </si>
+  <si>
+    <t>Cure your ailment with the snake oil</t>
+  </si>
+  <si>
+    <t>Defeat Black Jack Baker and his gang</t>
+  </si>
+  <si>
+    <t>Square up your account with Mariah</t>
+  </si>
+  <si>
+    <t>Become the sheriff</t>
+  </si>
+  <si>
+    <t>Finish without saving</t>
+  </si>
+  <si>
+    <t>Microtools</t>
+  </si>
+  <si>
+    <t>Binder</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Mag boots</t>
+  </si>
+  <si>
+    <t>Space mop</t>
+  </si>
+  <si>
+    <t>Spacesuit</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Spooky Manor</t>
+  </si>
+  <si>
+    <t>Repairing the Sensor Array</t>
+  </si>
+  <si>
+    <t>Rebooting the CPU Core</t>
+  </si>
+  <si>
+    <t>Translating the alien message</t>
+  </si>
+  <si>
+    <t>Lowering the shield generator</t>
+  </si>
+  <si>
+    <t>Shutting down the reactor</t>
+  </si>
+  <si>
+    <t>Dying like a green-blooded Vulcan</t>
+  </si>
+  <si>
+    <t>Irradiating the Frellion boarding party</t>
+  </si>
+  <si>
+    <t>Unlocking the pod bay doors</t>
+  </si>
+  <si>
+    <t>Escaping the space station</t>
+  </si>
+  <si>
+    <t>Being rescued by PARSEC</t>
+  </si>
+  <si>
+    <t>(Escaping the space station)…with FROZ the robot</t>
+  </si>
+  <si>
+    <t>Space Station</t>
+  </si>
+  <si>
+    <t>Raincoat (worn)</t>
+  </si>
+  <si>
+    <t>Padlock key</t>
+  </si>
+  <si>
+    <t>Parcel</t>
+  </si>
+  <si>
+    <t>Left drumstick</t>
+  </si>
+  <si>
+    <t>Right drumstick</t>
+  </si>
+  <si>
+    <t>Smoking jacket</t>
+  </si>
+  <si>
+    <t>Meat cleaver</t>
+  </si>
+  <si>
+    <t>Olive oil</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Herbalism book</t>
+  </si>
+  <si>
+    <t>Silver pen</t>
+  </si>
+  <si>
+    <t>Pool cue/stake</t>
+  </si>
+  <si>
+    <t>Wolf pelt</t>
+  </si>
+  <si>
+    <t>Wolfsbane</t>
+  </si>
+  <si>
+    <t>Gardening shears</t>
+  </si>
+  <si>
+    <t>Gravedigger’s spade</t>
+  </si>
+  <si>
+    <t>Skeleton key</t>
+  </si>
+  <si>
+    <t>Lock up your bike</t>
+  </si>
+  <si>
+    <t>Discover the Secret Study</t>
+  </si>
+  <si>
+    <t>Restore Manfred to human form</t>
+  </si>
+  <si>
+    <t>Recover from being wet and cold</t>
+  </si>
+  <si>
+    <t>Navigate the Hedge Maze</t>
+  </si>
+  <si>
+    <t>Destroy the vampire</t>
+  </si>
+  <si>
+    <t>Retrieve the skeleton key</t>
+  </si>
+  <si>
+    <t>Deliver the parcel to Lord Spooky</t>
+  </si>
+  <si>
+    <t>(Deliver the parcel to Lord Spooky)…with Lord Spooky’s signature</t>
+  </si>
+  <si>
+    <t>Escape Spooky Manor through the Front Door</t>
+  </si>
+  <si>
+    <t>Ride home on your bike, safe and sound</t>
+  </si>
+  <si>
+    <t>Shovel</t>
+  </si>
+  <si>
+    <t>Fire extinguisher</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Meat hook</t>
+  </si>
+  <si>
+    <t>Stuffed bunny</t>
+  </si>
+  <si>
+    <t>Plunger</t>
+  </si>
+  <si>
+    <t>Syringe</t>
+  </si>
+  <si>
+    <t>Wheelchair</t>
+  </si>
+  <si>
+    <t>Mop</t>
+  </si>
+  <si>
+    <t>Severed hand</t>
+  </si>
+  <si>
+    <t>Trocar</t>
+  </si>
+  <si>
+    <t>Iguana</t>
+  </si>
+  <si>
+    <t>Monkey wrench</t>
+  </si>
+  <si>
+    <t>Scarves</t>
+  </si>
+  <si>
+    <t>Advanced Rules</t>
+  </si>
+  <si>
+    <t>Normal Rules</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>Z-Ward</t>
+  </si>
+  <si>
+    <t>Read the note</t>
+  </si>
+  <si>
+    <t>Kill Dr. Honeycutt before he turns into a zombie</t>
+  </si>
+  <si>
+    <t>Rescue Pete from the Projector Room</t>
+  </si>
+  <si>
+    <t>Rescue Chef Peggy from the Kitchen</t>
+  </si>
+  <si>
+    <t>Rescue the nurse from the Restroom</t>
+  </si>
+  <si>
+    <t>Sedate the chief of staff</t>
+  </si>
+  <si>
+    <t>Retrieve your sister’s file from the office</t>
+  </si>
+  <si>
+    <t>Not causing a power outage in the EST Room</t>
+  </si>
+  <si>
+    <t>Find Frances inside the Quiet Room wall</t>
+  </si>
+  <si>
+    <t>Get Frances to the Elevator</t>
+  </si>
+  <si>
+    <t>Escape from the hospital</t>
+  </si>
+  <si>
+    <t>Descend to the Basement</t>
+  </si>
+  <si>
+    <t>Give the zombie back its severed hand</t>
+  </si>
+  <si>
+    <t>Give Frances Lulu the Iguana</t>
+  </si>
+  <si>
+    <t>Blow up the boiler</t>
+  </si>
+  <si>
+    <t>Locate the Temple of the Gold Skull</t>
+  </si>
+  <si>
+    <t>Bring back the gold skull for a museum’s collection</t>
+  </si>
+  <si>
+    <t>Return with a beaded skirt for the university's arts and culture exhibit</t>
+  </si>
+  <si>
+    <t>Acquire an egg for the ornithology department</t>
+  </si>
+  <si>
+    <t>Capture a live monkey for the zoo</t>
+  </si>
+  <si>
+    <t>Navigate the deep jungle with no false exits</t>
+  </si>
+  <si>
+    <t>Escape the jungle in the helicopter</t>
+  </si>
+  <si>
+    <t>Tip the dancers at the Tiger's Den</t>
+  </si>
+  <si>
+    <t>Injecting yourself with the hypo injector</t>
+  </si>
+  <si>
+    <t>S&amp;W .38 Special</t>
+  </si>
+  <si>
+    <t>Hypo injector</t>
+  </si>
+  <si>
+    <t>Dr. Honeycutt’s key card</t>
+  </si>
+  <si>
+    <t>Blank key card</t>
   </si>
 </sst>
 </file>
@@ -719,23 +1406,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3B05F-F39B-4351-A3D9-B104CE3887D6}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -754,8 +1442,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -775,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -795,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -815,7 +1506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -835,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -855,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -875,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -895,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -915,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -935,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -955,7 +1646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -975,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -995,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +2434,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
         <v>106</v>
@@ -1763,7 +2454,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
         <v>107</v>
@@ -1863,7 +2554,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
         <v>91</v>
@@ -1883,7 +2574,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
         <v>92</v>
@@ -1903,7 +2594,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
@@ -1963,7 +2654,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
         <v>95</v>
@@ -2003,7 +2694,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
         <v>109</v>
@@ -2015,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2035,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -2055,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -2075,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -2095,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -2115,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -2135,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2155,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -2175,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -2195,22 +2886,2297 @@
         <v>1</v>
       </c>
     </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s">
+        <v>147</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" t="s">
+        <v>149</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" t="s">
+        <v>155</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95">
+        <v>95</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" t="s">
+        <v>326</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96">
+        <v>96</v>
+      </c>
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" t="s">
+        <v>327</v>
+      </c>
+      <c r="E96">
+        <v>30</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" t="s">
+        <v>328</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" t="s">
+        <v>329</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99">
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" t="s">
+        <v>330</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" t="s">
+        <v>331</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" t="s">
+        <v>332</v>
+      </c>
+      <c r="E101">
+        <v>30</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" t="s">
+        <v>174</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>204</v>
+      </c>
+      <c r="D106" t="s">
+        <v>200</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" t="s">
+        <v>181</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>204</v>
+      </c>
+      <c r="D110" t="s">
+        <v>182</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>204</v>
+      </c>
+      <c r="D111" t="s">
+        <v>183</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>204</v>
+      </c>
+      <c r="D112" t="s">
+        <v>184</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" t="s">
+        <v>185</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>204</v>
+      </c>
+      <c r="D115" t="s">
+        <v>201</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116">
+        <v>116</v>
+      </c>
+      <c r="C116" t="s">
+        <v>204</v>
+      </c>
+      <c r="D116" t="s">
+        <v>194</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>204</v>
+      </c>
+      <c r="D117" t="s">
+        <v>195</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>204</v>
+      </c>
+      <c r="D118" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" t="s">
+        <v>203</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>169</v>
+      </c>
+      <c r="B120">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" t="s">
+        <v>206</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>205</v>
+      </c>
+      <c r="D121" t="s">
+        <v>207</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>227</v>
+      </c>
+      <c r="B123">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" t="s">
+        <v>228</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>227</v>
+      </c>
+      <c r="B124">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>58</v>
+      </c>
+      <c r="D124" t="s">
+        <v>229</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>227</v>
+      </c>
+      <c r="B125">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" t="s">
+        <v>231</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>227</v>
+      </c>
+      <c r="B127">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" t="s">
+        <v>232</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128" t="s">
+        <v>233</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D129" t="s">
+        <v>234</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>227</v>
+      </c>
+      <c r="B130">
+        <v>130</v>
+      </c>
+      <c r="C130" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" t="s">
+        <v>235</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>227</v>
+      </c>
+      <c r="B131">
+        <v>131</v>
+      </c>
+      <c r="C131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" t="s">
+        <v>236</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132">
+        <v>132</v>
+      </c>
+      <c r="C132" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132" t="s">
+        <v>237</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133">
+        <v>133</v>
+      </c>
+      <c r="C133" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" t="s">
+        <v>238</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>58</v>
+      </c>
+      <c r="D134" t="s">
+        <v>239</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>227</v>
+      </c>
+      <c r="B135">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" t="s">
+        <v>240</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>227</v>
+      </c>
+      <c r="B136">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" t="s">
+        <v>241</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>227</v>
+      </c>
+      <c r="B137">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>35</v>
+      </c>
+      <c r="D137" t="s">
+        <v>242</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>227</v>
+      </c>
+      <c r="B138">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" t="s">
+        <v>243</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" t="s">
+        <v>334</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" t="s">
+        <v>252</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>58</v>
+      </c>
+      <c r="D141" t="s">
+        <v>253</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142">
+        <v>142</v>
+      </c>
+      <c r="C142" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" t="s">
+        <v>254</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" t="s">
+        <v>255</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>263</v>
+      </c>
+      <c r="B144">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" t="s">
+        <v>256</v>
+      </c>
+      <c r="E144">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>263</v>
+      </c>
+      <c r="B145">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145" t="s">
+        <v>257</v>
+      </c>
+      <c r="E145">
+        <v>15</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>263</v>
+      </c>
+      <c r="B146">
+        <v>146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" t="s">
+        <v>258</v>
+      </c>
+      <c r="E146">
+        <v>100000000000</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>263</v>
+      </c>
+      <c r="B147">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" t="s">
+        <v>259</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>263</v>
+      </c>
+      <c r="B148">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" t="s">
+        <v>260</v>
+      </c>
+      <c r="E148">
+        <v>10</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149" t="s">
+        <v>262</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>35</v>
+      </c>
+      <c r="D150" t="s">
+        <v>261</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>263</v>
+      </c>
+      <c r="B151">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151" t="s">
+        <v>157</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>251</v>
+      </c>
+      <c r="B152">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
+        <v>58</v>
+      </c>
+      <c r="D152" t="s">
+        <v>281</v>
+      </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>251</v>
+      </c>
+      <c r="B153">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" t="s">
+        <v>282</v>
+      </c>
+      <c r="E153">
+        <v>10</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>251</v>
+      </c>
+      <c r="B154">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>35</v>
+      </c>
+      <c r="D154" t="s">
+        <v>283</v>
+      </c>
+      <c r="E154">
+        <v>15</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>251</v>
+      </c>
+      <c r="B155">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" t="s">
+        <v>284</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>251</v>
+      </c>
+      <c r="B156">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>59</v>
+      </c>
+      <c r="D156" t="s">
+        <v>285</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>251</v>
+      </c>
+      <c r="B157">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>35</v>
+      </c>
+      <c r="D157" t="s">
+        <v>286</v>
+      </c>
+      <c r="E157">
+        <v>15</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>251</v>
+      </c>
+      <c r="B158">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>58</v>
+      </c>
+      <c r="D158" t="s">
+        <v>287</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>251</v>
+      </c>
+      <c r="B159">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>58</v>
+      </c>
+      <c r="D159" t="s">
+        <v>288</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>251</v>
+      </c>
+      <c r="B160">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>60</v>
+      </c>
+      <c r="D160" t="s">
+        <v>289</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>251</v>
+      </c>
+      <c r="B161">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>59</v>
+      </c>
+      <c r="D161" t="s">
+        <v>290</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
+        <v>35</v>
+      </c>
+      <c r="D162" t="s">
+        <v>291</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>251</v>
+      </c>
+      <c r="B163">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>60</v>
+      </c>
+      <c r="D163" t="s">
+        <v>243</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>310</v>
+      </c>
+      <c r="B164">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s">
+        <v>58</v>
+      </c>
+      <c r="D164" t="s">
+        <v>311</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>310</v>
+      </c>
+      <c r="B165">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>35</v>
+      </c>
+      <c r="D165" t="s">
+        <v>312</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>310</v>
+      </c>
+      <c r="B166">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>59</v>
+      </c>
+      <c r="D166" t="s">
+        <v>313</v>
+      </c>
+      <c r="E166">
+        <v>10</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>310</v>
+      </c>
+      <c r="B167">
+        <v>167</v>
+      </c>
+      <c r="C167" t="s">
+        <v>59</v>
+      </c>
+      <c r="D167" t="s">
+        <v>314</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>310</v>
+      </c>
+      <c r="B168">
+        <v>168</v>
+      </c>
+      <c r="C168" t="s">
+        <v>59</v>
+      </c>
+      <c r="D168" t="s">
+        <v>315</v>
+      </c>
+      <c r="E168">
+        <v>10</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>310</v>
+      </c>
+      <c r="B169">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>58</v>
+      </c>
+      <c r="D169" t="s">
+        <v>316</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>310</v>
+      </c>
+      <c r="B170">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>58</v>
+      </c>
+      <c r="D170" t="s">
+        <v>317</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>310</v>
+      </c>
+      <c r="B171">
+        <v>171</v>
+      </c>
+      <c r="C171" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" t="s">
+        <v>318</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>310</v>
+      </c>
+      <c r="B172">
+        <v>172</v>
+      </c>
+      <c r="C172" t="s">
+        <v>59</v>
+      </c>
+      <c r="D172" t="s">
+        <v>319</v>
+      </c>
+      <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>310</v>
+      </c>
+      <c r="B173">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
+        <v>59</v>
+      </c>
+      <c r="D173" t="s">
+        <v>320</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>310</v>
+      </c>
+      <c r="B174">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
+        <v>59</v>
+      </c>
+      <c r="D174" t="s">
+        <v>321</v>
+      </c>
+      <c r="E174">
+        <v>25</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>310</v>
+      </c>
+      <c r="B175">
+        <v>175</v>
+      </c>
+      <c r="C175" t="s">
+        <v>60</v>
+      </c>
+      <c r="D175" t="s">
+        <v>243</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>310</v>
+      </c>
+      <c r="B176">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
+        <v>59</v>
+      </c>
+      <c r="D176" t="s">
+        <v>322</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>310</v>
+      </c>
+      <c r="B177">
+        <v>177</v>
+      </c>
+      <c r="C177" t="s">
+        <v>58</v>
+      </c>
+      <c r="D177" t="s">
+        <v>323</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>310</v>
+      </c>
+      <c r="B178">
+        <v>178</v>
+      </c>
+      <c r="C178" t="s">
+        <v>58</v>
+      </c>
+      <c r="D178" t="s">
+        <v>324</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>310</v>
+      </c>
+      <c r="B179">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>35</v>
+      </c>
+      <c r="D179" t="s">
+        <v>325</v>
+      </c>
+      <c r="E179">
+        <v>5</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G179" xr:uid="{6BA3B05F-F39B-4351-A3D9-B104CE3887D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ADA8F9-7DEF-4981-BAB6-4D3FA5E71785}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2223,8 +5189,11 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2238,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2252,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2308,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2322,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2336,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2350,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2364,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2378,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2392,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2406,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2420,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2770,7 +5739,1843 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>335</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>215</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>221</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>222</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>223</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>227</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>224</v>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>227</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>226</v>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>336</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>244</v>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>245</v>
+      </c>
+      <c r="D125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>247</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>248</v>
+      </c>
+      <c r="D128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>251</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>265</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>251</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>251</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>267</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>251</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>251</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>269</v>
+      </c>
+      <c r="D136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>270</v>
+      </c>
+      <c r="D137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>251</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>272</v>
+      </c>
+      <c r="D139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>251</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>273</v>
+      </c>
+      <c r="D140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>251</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>251</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>251</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>275</v>
+      </c>
+      <c r="D143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>251</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>276</v>
+      </c>
+      <c r="D144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>251</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>277</v>
+      </c>
+      <c r="D145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>251</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>278</v>
+      </c>
+      <c r="D146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>251</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>279</v>
+      </c>
+      <c r="D147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>251</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>280</v>
+      </c>
+      <c r="D148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>310</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>246</v>
+      </c>
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>292</v>
+      </c>
+      <c r="D150" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>310</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>337</v>
+      </c>
+      <c r="D151" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>293</v>
+      </c>
+      <c r="D152" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>310</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="b">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>294</v>
+      </c>
+      <c r="D154" t="b">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>295</v>
+      </c>
+      <c r="D155" t="b">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>296</v>
+      </c>
+      <c r="D156" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>297</v>
+      </c>
+      <c r="D157" t="b">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>298</v>
+      </c>
+      <c r="D158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>310</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>299</v>
+      </c>
+      <c r="D159" t="b">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>310</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>300</v>
+      </c>
+      <c r="D160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>310</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>338</v>
+      </c>
+      <c r="D161" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>310</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>301</v>
+      </c>
+      <c r="D162" t="b">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>310</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>302</v>
+      </c>
+      <c r="D163" t="b">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>310</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>303</v>
+      </c>
+      <c r="D164" t="b">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>310</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>304</v>
+      </c>
+      <c r="D165" t="b">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>310</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>305</v>
+      </c>
+      <c r="D166" t="b">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>310</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>306</v>
+      </c>
+      <c r="D167" t="b">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Scores.xlsx
+++ b/Data/Scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da02ac3bab04d9c0/Documents/Paresley/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="706" documentId="8_{2EAD1506-4EA6-4B40-8F33-8570EE6731CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024E5265-3157-4CE1-BF0D-7D352EF8B96F}"/>
+  <xr:revisionPtr revIDLastSave="714" documentId="8_{2EAD1506-4EA6-4B40-8F33-8570EE6731CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE0C2F96-4BB6-41CB-A5DB-CDC2D026DB6D}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="2535" windowWidth="16875" windowHeight="10522" activeTab="1" xr2:uid="{F197B796-CF8D-4FAA-B522-1A8DE97E8EEA}"/>
+    <workbookView xWindow="5625" yWindow="2535" windowWidth="16875" windowHeight="10522" xr2:uid="{F197B796-CF8D-4FAA-B522-1A8DE97E8EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -439,9 +439,6 @@
     <t>Dangertown Beatdown</t>
   </si>
   <si>
-    <t>pc</t>
-  </si>
-  <si>
     <t>Jack Slade</t>
   </si>
   <si>
@@ -1055,6 +1052,12 @@
   </si>
   <si>
     <t>Blank key card</t>
+  </si>
+  <si>
+    <t>score_set</t>
+  </si>
+  <si>
+    <t>Inf</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1093,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3B05F-F39B-4351-A3D9-B104CE3887D6}">
   <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1443,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1465,6 +1469,9 @@
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="G2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -1485,6 +1492,9 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -1505,6 +1515,9 @@
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -1525,6 +1538,9 @@
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1545,6 +1561,9 @@
       <c r="F6">
         <v>2</v>
       </c>
+      <c r="G6" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1565,6 +1584,9 @@
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -1585,6 +1607,9 @@
       <c r="F8">
         <v>2</v>
       </c>
+      <c r="G8" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -1605,6 +1630,9 @@
       <c r="F9">
         <v>2</v>
       </c>
+      <c r="G9" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -1625,6 +1653,9 @@
       <c r="F10">
         <v>2</v>
       </c>
+      <c r="G10" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -1645,6 +1676,9 @@
       <c r="F11">
         <v>2</v>
       </c>
+      <c r="G11" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -1665,6 +1699,9 @@
       <c r="F12">
         <v>2</v>
       </c>
+      <c r="G12" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -1685,6 +1722,9 @@
       <c r="F13">
         <v>2</v>
       </c>
+      <c r="G13" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -1705,6 +1745,9 @@
       <c r="F14">
         <v>2</v>
       </c>
+      <c r="G14" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -1725,6 +1768,9 @@
       <c r="F15">
         <v>2</v>
       </c>
+      <c r="G15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -1745,8 +1791,11 @@
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1765,8 +1814,11 @@
       <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1785,8 +1837,11 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1805,8 +1860,11 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1825,8 +1883,11 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1845,8 +1906,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1865,8 +1929,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1885,8 +1952,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1905,8 +1975,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1925,8 +1998,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1945,8 +2021,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1965,8 +2044,11 @@
       <c r="F27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1985,8 +2067,11 @@
       <c r="F28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2005,8 +2090,11 @@
       <c r="F29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2025,8 +2113,11 @@
       <c r="F30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2045,8 +2136,11 @@
       <c r="F31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2065,8 +2159,11 @@
       <c r="F32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2085,8 +2182,11 @@
       <c r="F33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2105,8 +2205,11 @@
       <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2125,8 +2228,11 @@
       <c r="F35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2145,8 +2251,11 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2165,8 +2274,11 @@
       <c r="F37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2185,8 +2297,11 @@
       <c r="F38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2205,8 +2320,11 @@
       <c r="F39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2225,8 +2343,11 @@
       <c r="F40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2245,8 +2366,11 @@
       <c r="F41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2265,8 +2389,11 @@
       <c r="F42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2285,8 +2412,11 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2305,8 +2435,11 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2325,8 +2458,11 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2345,8 +2481,11 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G46" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2365,8 +2504,11 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2385,8 +2527,11 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G48" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2405,8 +2550,11 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G49" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2425,8 +2573,11 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -2445,8 +2596,11 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -2465,8 +2619,11 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G52" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -2485,8 +2642,11 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -2505,8 +2665,11 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -2525,8 +2688,11 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G55" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -2545,8 +2711,11 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G56" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -2565,8 +2734,11 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G57" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2585,8 +2757,11 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -2605,8 +2780,11 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G59" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -2625,8 +2803,11 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2645,8 +2826,11 @@
       <c r="F61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2665,8 +2849,11 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2685,8 +2872,11 @@
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G63" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -2704,6 +2894,9 @@
       </c>
       <c r="F64">
         <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
@@ -2725,6 +2918,9 @@
       <c r="F65">
         <v>1</v>
       </c>
+      <c r="G65" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
@@ -2745,6 +2941,9 @@
       <c r="F66">
         <v>1</v>
       </c>
+      <c r="G66" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
@@ -2765,6 +2964,9 @@
       <c r="F67">
         <v>1</v>
       </c>
+      <c r="G67" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
@@ -2785,6 +2987,9 @@
       <c r="F68">
         <v>1</v>
       </c>
+      <c r="G68" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
@@ -2805,6 +3010,9 @@
       <c r="F69">
         <v>1</v>
       </c>
+      <c r="G69" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
@@ -2825,6 +3033,9 @@
       <c r="F70">
         <v>1</v>
       </c>
+      <c r="G70" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
@@ -2845,6 +3056,9 @@
       <c r="F71">
         <v>1</v>
       </c>
+      <c r="G71" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
@@ -2865,6 +3079,9 @@
       <c r="F72">
         <v>1</v>
       </c>
+      <c r="G72" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
@@ -2885,6 +3102,9 @@
       <c r="F73">
         <v>1</v>
       </c>
+      <c r="G73" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
@@ -2897,7 +3117,7 @@
         <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -2906,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
@@ -2920,7 +3140,7 @@
         <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -2929,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
@@ -2943,7 +3163,7 @@
         <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -2952,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
@@ -2966,7 +3186,7 @@
         <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -2975,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
@@ -2989,7 +3209,7 @@
         <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -2998,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
@@ -3012,7 +3232,7 @@
         <v>59</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -3021,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
@@ -3035,7 +3255,7 @@
         <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -3044,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
@@ -3058,7 +3278,7 @@
         <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -3067,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
@@ -3081,7 +3301,7 @@
         <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -3090,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
@@ -3104,7 +3324,7 @@
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -3113,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
@@ -3127,7 +3347,7 @@
         <v>58</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -3136,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
@@ -3150,7 +3370,7 @@
         <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -3159,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
@@ -3173,7 +3393,7 @@
         <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -3182,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
@@ -3196,7 +3416,7 @@
         <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -3205,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
@@ -3219,7 +3439,7 @@
         <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -3228,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
@@ -3242,7 +3462,7 @@
         <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -3251,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
@@ -3265,7 +3485,7 @@
         <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -3274,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
@@ -3288,7 +3508,7 @@
         <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -3297,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
@@ -3311,7 +3531,7 @@
         <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3320,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
@@ -3334,7 +3554,7 @@
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -3343,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
@@ -3357,7 +3577,7 @@
         <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E94">
         <v>5</v>
@@ -3366,12 +3586,12 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B95">
         <v>95</v>
@@ -3380,7 +3600,7 @@
         <v>59</v>
       </c>
       <c r="D95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E95">
         <v>10</v>
@@ -3388,10 +3608,13 @@
       <c r="F95">
         <v>1</v>
       </c>
+      <c r="G95" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B96">
         <v>96</v>
@@ -3400,7 +3623,7 @@
         <v>58</v>
       </c>
       <c r="D96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E96">
         <v>30</v>
@@ -3408,10 +3631,13 @@
       <c r="F96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G96" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B97">
         <v>97</v>
@@ -3420,7 +3646,7 @@
         <v>58</v>
       </c>
       <c r="D97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E97">
         <v>10</v>
@@ -3428,10 +3654,13 @@
       <c r="F97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G97" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98">
         <v>98</v>
@@ -3440,7 +3669,7 @@
         <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -3448,10 +3677,13 @@
       <c r="F98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G98" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B99">
         <v>99</v>
@@ -3460,7 +3692,7 @@
         <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E99">
         <v>10</v>
@@ -3468,10 +3700,13 @@
       <c r="F99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G99" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B100">
         <v>100</v>
@@ -3480,7 +3715,7 @@
         <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E100">
         <v>5</v>
@@ -3488,10 +3723,13 @@
       <c r="F100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G100" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B101">
         <v>101</v>
@@ -3500,7 +3738,7 @@
         <v>35</v>
       </c>
       <c r="D101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E101">
         <v>30</v>
@@ -3508,10 +3746,13 @@
       <c r="F101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G101" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B102">
         <v>102</v>
@@ -3520,7 +3761,7 @@
         <v>60</v>
       </c>
       <c r="D102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3528,10 +3769,13 @@
       <c r="F102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G102" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103">
         <v>103</v>
@@ -3540,7 +3784,7 @@
         <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E103">
         <v>5</v>
@@ -3548,19 +3792,22 @@
       <c r="F103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G103" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B104">
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E104">
         <v>5</v>
@@ -3568,19 +3815,22 @@
       <c r="F104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G104" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B105">
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -3588,19 +3838,22 @@
       <c r="F105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G105" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B106">
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -3608,19 +3861,22 @@
       <c r="F106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B107">
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -3628,19 +3884,22 @@
       <c r="F107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G107" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B108">
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -3648,19 +3907,22 @@
       <c r="F108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G108" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B109">
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E109">
         <v>5</v>
@@ -3668,19 +3930,22 @@
       <c r="F109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B110">
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -3688,19 +3953,22 @@
       <c r="F110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G110" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B111">
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -3708,19 +3976,22 @@
       <c r="F111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B112">
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -3728,19 +3999,22 @@
       <c r="F112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G112" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B113">
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E113">
         <v>5</v>
@@ -3748,19 +4022,22 @@
       <c r="F113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G113" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B114">
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E114">
         <v>5</v>
@@ -3768,19 +4045,22 @@
       <c r="F114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G114" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B115">
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D115" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -3788,19 +4068,22 @@
       <c r="F115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G115" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B116">
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D116" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -3808,19 +4091,22 @@
       <c r="F116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G116" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B117">
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E117">
         <v>5</v>
@@ -3828,19 +4114,22 @@
       <c r="F117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G117" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B118">
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D118" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -3848,19 +4137,22 @@
       <c r="F118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G118" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B119">
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E119">
         <v>5</v>
@@ -3868,39 +4160,45 @@
       <c r="F119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G119" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B120">
         <v>120</v>
       </c>
       <c r="C120" t="s">
+        <v>204</v>
+      </c>
+      <c r="D120" t="s">
         <v>205</v>
       </c>
-      <c r="D120" t="s">
-        <v>206</v>
-      </c>
       <c r="E120">
         <v>5</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G120" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B121">
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -3908,19 +4206,22 @@
       <c r="F121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G121" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B122">
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E122">
         <v>5</v>
@@ -3928,10 +4229,13 @@
       <c r="F122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G122" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B123">
         <v>123</v>
@@ -3940,7 +4244,7 @@
         <v>58</v>
       </c>
       <c r="D123" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E123">
         <v>5</v>
@@ -3948,10 +4252,13 @@
       <c r="F123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G123" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B124">
         <v>124</v>
@@ -3960,7 +4267,7 @@
         <v>58</v>
       </c>
       <c r="D124" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E124">
         <v>5</v>
@@ -3968,10 +4275,13 @@
       <c r="F124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G124" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B125">
         <v>125</v>
@@ -3980,7 +4290,7 @@
         <v>58</v>
       </c>
       <c r="D125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E125">
         <v>5</v>
@@ -3988,10 +4298,13 @@
       <c r="F125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B126">
         <v>126</v>
@@ -4000,7 +4313,7 @@
         <v>35</v>
       </c>
       <c r="D126" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -4008,10 +4321,13 @@
       <c r="F126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G126" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B127">
         <v>127</v>
@@ -4020,7 +4336,7 @@
         <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E127">
         <v>10</v>
@@ -4028,10 +4344,13 @@
       <c r="F127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G127" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B128">
         <v>128</v>
@@ -4040,7 +4359,7 @@
         <v>58</v>
       </c>
       <c r="D128" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -4048,10 +4367,13 @@
       <c r="F128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G128" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B129">
         <v>129</v>
@@ -4060,7 +4382,7 @@
         <v>58</v>
       </c>
       <c r="D129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E129">
         <v>5</v>
@@ -4068,10 +4390,13 @@
       <c r="F129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G129" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B130">
         <v>130</v>
@@ -4080,7 +4405,7 @@
         <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -4088,10 +4413,13 @@
       <c r="F130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G130" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B131">
         <v>131</v>
@@ -4100,7 +4428,7 @@
         <v>60</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -4108,10 +4436,13 @@
       <c r="F131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G131" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B132">
         <v>132</v>
@@ -4120,7 +4451,7 @@
         <v>60</v>
       </c>
       <c r="D132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -4128,10 +4459,13 @@
       <c r="F132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G132" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B133">
         <v>133</v>
@@ -4140,7 +4474,7 @@
         <v>59</v>
       </c>
       <c r="D133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -4148,10 +4482,13 @@
       <c r="F133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G133" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B134">
         <v>134</v>
@@ -4160,7 +4497,7 @@
         <v>58</v>
       </c>
       <c r="D134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E134">
         <v>5</v>
@@ -4168,10 +4505,13 @@
       <c r="F134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G134" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B135">
         <v>135</v>
@@ -4180,7 +4520,7 @@
         <v>35</v>
       </c>
       <c r="D135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E135">
         <v>10</v>
@@ -4188,10 +4528,13 @@
       <c r="F135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G135" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B136">
         <v>136</v>
@@ -4200,7 +4543,7 @@
         <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E136">
         <v>5</v>
@@ -4208,10 +4551,13 @@
       <c r="F136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G136" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B137">
         <v>137</v>
@@ -4220,7 +4566,7 @@
         <v>35</v>
       </c>
       <c r="D137" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E137">
         <v>10</v>
@@ -4228,10 +4574,13 @@
       <c r="F137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G137" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B138">
         <v>138</v>
@@ -4240,7 +4589,7 @@
         <v>60</v>
       </c>
       <c r="D138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -4248,10 +4597,13 @@
       <c r="F138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G138" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B139">
         <v>139</v>
@@ -4260,7 +4612,7 @@
         <v>58</v>
       </c>
       <c r="D139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E139">
         <v>10</v>
@@ -4268,10 +4620,13 @@
       <c r="F139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G139" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B140">
         <v>140</v>
@@ -4280,7 +4635,7 @@
         <v>58</v>
       </c>
       <c r="D140" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E140">
         <v>10</v>
@@ -4288,10 +4643,13 @@
       <c r="F140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G140" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B141">
         <v>141</v>
@@ -4300,7 +4658,7 @@
         <v>58</v>
       </c>
       <c r="D141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E141">
         <v>10</v>
@@ -4308,10 +4666,13 @@
       <c r="F141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B142">
         <v>142</v>
@@ -4320,7 +4681,7 @@
         <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -4328,10 +4689,13 @@
       <c r="F142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G142" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B143">
         <v>143</v>
@@ -4340,7 +4704,7 @@
         <v>35</v>
       </c>
       <c r="D143" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E143">
         <v>10</v>
@@ -4348,10 +4712,13 @@
       <c r="F143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G143" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B144">
         <v>144</v>
@@ -4360,7 +4727,7 @@
         <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E144">
         <v>10</v>
@@ -4368,10 +4735,13 @@
       <c r="F144">
         <v>1</v>
       </c>
+      <c r="G144" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B145">
         <v>145</v>
@@ -4380,7 +4750,7 @@
         <v>60</v>
       </c>
       <c r="D145" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E145">
         <v>15</v>
@@ -4388,10 +4758,13 @@
       <c r="F145">
         <v>1</v>
       </c>
+      <c r="G145" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B146">
         <v>146</v>
@@ -4400,18 +4773,21 @@
         <v>60</v>
       </c>
       <c r="D146" t="s">
-        <v>258</v>
-      </c>
-      <c r="E146">
-        <v>100000000000</v>
+        <v>257</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="F146">
         <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B147">
         <v>147</v>
@@ -4420,7 +4796,7 @@
         <v>59</v>
       </c>
       <c r="D147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E147">
         <v>10</v>
@@ -4428,10 +4804,13 @@
       <c r="F147">
         <v>1</v>
       </c>
+      <c r="G147" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B148">
         <v>148</v>
@@ -4440,7 +4819,7 @@
         <v>59</v>
       </c>
       <c r="D148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E148">
         <v>10</v>
@@ -4448,10 +4827,13 @@
       <c r="F148">
         <v>1</v>
       </c>
+      <c r="G148" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B149">
         <v>149</v>
@@ -4460,18 +4842,21 @@
         <v>60</v>
       </c>
       <c r="D149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E149">
         <v>5</v>
       </c>
       <c r="F149">
         <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B150">
         <v>150</v>
@@ -4480,7 +4865,7 @@
         <v>35</v>
       </c>
       <c r="D150" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E150">
         <v>10</v>
@@ -4488,10 +4873,13 @@
       <c r="F150">
         <v>1</v>
       </c>
+      <c r="G150" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B151">
         <v>151</v>
@@ -4500,18 +4888,21 @@
         <v>60</v>
       </c>
       <c r="D151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E151">
         <v>5</v>
       </c>
       <c r="F151">
         <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B152">
         <v>152</v>
@@ -4520,7 +4911,7 @@
         <v>58</v>
       </c>
       <c r="D152" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E152">
         <v>5</v>
@@ -4529,12 +4920,12 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B153">
         <v>153</v>
@@ -4543,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="D153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E153">
         <v>10</v>
@@ -4552,12 +4943,12 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B154">
         <v>154</v>
@@ -4566,7 +4957,7 @@
         <v>35</v>
       </c>
       <c r="D154" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E154">
         <v>15</v>
@@ -4575,12 +4966,12 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B155">
         <v>155</v>
@@ -4589,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="D155" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E155">
         <v>10</v>
@@ -4598,12 +4989,12 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B156">
         <v>156</v>
@@ -4612,7 +5003,7 @@
         <v>59</v>
       </c>
       <c r="D156" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E156">
         <v>10</v>
@@ -4621,12 +5012,12 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157">
         <v>157</v>
@@ -4635,7 +5026,7 @@
         <v>35</v>
       </c>
       <c r="D157" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E157">
         <v>15</v>
@@ -4644,12 +5035,12 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158">
         <v>158</v>
@@ -4658,7 +5049,7 @@
         <v>58</v>
       </c>
       <c r="D158" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E158">
         <v>5</v>
@@ -4667,12 +5058,12 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B159">
         <v>159</v>
@@ -4681,7 +5072,7 @@
         <v>58</v>
       </c>
       <c r="D159" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -4690,12 +5081,12 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B160">
         <v>160</v>
@@ -4704,7 +5095,7 @@
         <v>60</v>
       </c>
       <c r="D160" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -4713,12 +5104,12 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161">
         <v>161</v>
@@ -4727,7 +5118,7 @@
         <v>59</v>
       </c>
       <c r="D161" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E161">
         <v>10</v>
@@ -4736,12 +5127,12 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162">
         <v>162</v>
@@ -4750,7 +5141,7 @@
         <v>35</v>
       </c>
       <c r="D162" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E162">
         <v>5</v>
@@ -4759,12 +5150,12 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B163">
         <v>163</v>
@@ -4773,7 +5164,7 @@
         <v>60</v>
       </c>
       <c r="D163" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E163">
         <v>5</v>
@@ -4782,12 +5173,12 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B164">
         <v>164</v>
@@ -4796,7 +5187,7 @@
         <v>58</v>
       </c>
       <c r="D164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E164">
         <v>5</v>
@@ -4805,12 +5196,12 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B165">
         <v>165</v>
@@ -4819,7 +5210,7 @@
         <v>35</v>
       </c>
       <c r="D165" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E165">
         <v>5</v>
@@ -4828,12 +5219,12 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B166">
         <v>166</v>
@@ -4842,7 +5233,7 @@
         <v>59</v>
       </c>
       <c r="D166" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E166">
         <v>10</v>
@@ -4851,12 +5242,12 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B167">
         <v>167</v>
@@ -4865,7 +5256,7 @@
         <v>59</v>
       </c>
       <c r="D167" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E167">
         <v>10</v>
@@ -4874,12 +5265,12 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B168">
         <v>168</v>
@@ -4888,7 +5279,7 @@
         <v>59</v>
       </c>
       <c r="D168" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E168">
         <v>10</v>
@@ -4897,12 +5288,12 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B169">
         <v>169</v>
@@ -4911,7 +5302,7 @@
         <v>58</v>
       </c>
       <c r="D169" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E169">
         <v>5</v>
@@ -4920,12 +5311,12 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B170">
         <v>170</v>
@@ -4934,7 +5325,7 @@
         <v>58</v>
       </c>
       <c r="D170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E170">
         <v>5</v>
@@ -4943,12 +5334,12 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B171">
         <v>171</v>
@@ -4957,7 +5348,7 @@
         <v>35</v>
       </c>
       <c r="D171" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E171">
         <v>5</v>
@@ -4966,12 +5357,12 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B172">
         <v>172</v>
@@ -4980,7 +5371,7 @@
         <v>59</v>
       </c>
       <c r="D172" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -4989,12 +5380,12 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B173">
         <v>173</v>
@@ -5003,7 +5394,7 @@
         <v>59</v>
       </c>
       <c r="D173" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E173">
         <v>5</v>
@@ -5012,12 +5403,12 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B174">
         <v>174</v>
@@ -5026,7 +5417,7 @@
         <v>59</v>
       </c>
       <c r="D174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E174">
         <v>25</v>
@@ -5035,12 +5426,12 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B175">
         <v>175</v>
@@ -5049,7 +5440,7 @@
         <v>60</v>
       </c>
       <c r="D175" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E175">
         <v>5</v>
@@ -5058,12 +5449,12 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B176">
         <v>176</v>
@@ -5072,7 +5463,7 @@
         <v>59</v>
       </c>
       <c r="D176" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E176">
         <v>5</v>
@@ -5081,12 +5472,12 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B177">
         <v>177</v>
@@ -5095,7 +5486,7 @@
         <v>58</v>
       </c>
       <c r="D177" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -5104,12 +5495,12 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B178">
         <v>178</v>
@@ -5118,7 +5509,7 @@
         <v>58</v>
       </c>
       <c r="D178" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E178">
         <v>5</v>
@@ -5127,12 +5518,12 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B179">
         <v>179</v>
@@ -5141,7 +5532,7 @@
         <v>35</v>
       </c>
       <c r="D179" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E179">
         <v>5</v>
@@ -5150,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5163,7 +5554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ADA8F9-7DEF-4981-BAB6-4D3FA5E71785}">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5190,7 +5581,7 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6041,7 +6432,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -6049,7 +6440,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -6063,13 +6454,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -6077,13 +6468,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -6091,13 +6482,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -6105,13 +6496,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -6119,13 +6510,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -6133,13 +6524,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -6147,13 +6538,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -6161,13 +6552,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -6175,13 +6566,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -6189,13 +6580,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -6203,13 +6594,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -6217,13 +6608,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -6231,13 +6622,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -6245,13 +6636,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -6259,13 +6650,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -6273,13 +6664,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -6287,13 +6678,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -6301,13 +6692,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -6315,13 +6706,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -6329,13 +6720,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -6343,13 +6734,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -6357,13 +6748,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -6371,13 +6762,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -6385,13 +6776,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -6399,13 +6790,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -6413,13 +6804,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -6427,13 +6818,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -6441,13 +6832,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -6455,13 +6846,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -6469,13 +6860,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -6483,13 +6874,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -6497,13 +6888,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -6511,13 +6902,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -6525,13 +6916,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -6539,13 +6930,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -6553,13 +6944,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -6567,13 +6958,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -6581,13 +6972,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -6595,13 +6986,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -6609,13 +7000,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -6623,13 +7014,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -6637,13 +7028,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -6651,7 +7042,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -6665,13 +7056,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -6679,13 +7070,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -6693,13 +7084,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -6707,13 +7098,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -6721,13 +7112,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -6735,13 +7126,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -6749,13 +7140,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -6763,13 +7154,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -6777,13 +7168,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -6791,13 +7182,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -6805,13 +7196,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -6819,13 +7210,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -6833,13 +7224,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -6847,13 +7238,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -6861,13 +7252,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -6875,13 +7266,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -6889,13 +7280,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -6903,13 +7294,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -6917,13 +7308,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -6931,13 +7322,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -6945,13 +7336,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -6959,13 +7350,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -6973,13 +7364,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -6987,13 +7378,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -7001,13 +7392,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -7015,13 +7406,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -7029,13 +7420,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -7043,13 +7434,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B134">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -7057,13 +7448,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -7071,13 +7462,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -7085,13 +7476,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -7099,13 +7490,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -7113,13 +7504,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -7127,13 +7518,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -7141,7 +7532,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B141">
         <v>140</v>
@@ -7155,13 +7546,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -7169,13 +7560,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -7183,13 +7574,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B144">
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -7197,13 +7588,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -7211,13 +7602,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B146">
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -7225,13 +7616,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B147">
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -7239,13 +7630,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -7253,75 +7644,75 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B151">
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B153">
         <v>152</v>
@@ -7333,245 +7724,245 @@
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B156">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B164">
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B165">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
       <c r="C167" t="s">
+        <v>305</v>
+      </c>
+      <c r="D167" t="b">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
         <v>306</v>
-      </c>
-      <c r="D167" t="b">
-        <v>0</v>
-      </c>
-      <c r="E167" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Scores.xlsx
+++ b/Data/Scores.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da02ac3bab04d9c0/Documents/Paresley/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="714" documentId="8_{2EAD1506-4EA6-4B40-8F33-8570EE6731CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE0C2F96-4BB6-41CB-A5DB-CDC2D026DB6D}"/>
+  <xr:revisionPtr revIDLastSave="861" documentId="8_{2EAD1506-4EA6-4B40-8F33-8570EE6731CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE88C19-08F7-4195-9709-AE2FA07C9786}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="2535" windowWidth="16875" windowHeight="10522" xr2:uid="{F197B796-CF8D-4FAA-B522-1A8DE97E8EEA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{F197B796-CF8D-4FAA-B522-1A8DE97E8EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
     <sheet name="Inventory" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inventory!$A$1:$E$167</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Score!$A$1:$G$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -157,9 +158,6 @@
     <t>Waterskin</t>
   </si>
   <si>
-    <t>Lockpick</t>
-  </si>
-  <si>
     <t>Dagger</t>
   </si>
   <si>
@@ -385,9 +383,6 @@
     <t>Matchbook</t>
   </si>
   <si>
-    <t>baseball bat</t>
-  </si>
-  <si>
     <t>Wallet</t>
   </si>
   <si>
@@ -1058,6 +1053,12 @@
   </si>
   <si>
     <t>Inf</t>
+  </si>
+  <si>
+    <t>Lockpicks</t>
+  </si>
+  <si>
+    <t>Baseball bat</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3B05F-F39B-4351-A3D9-B104CE3887D6}">
   <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView topLeftCell="B106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1447,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1458,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1470,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1481,10 +1482,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1493,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1504,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1516,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1527,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1539,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1550,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -1562,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1573,7 +1574,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1585,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1596,10 +1597,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1608,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1619,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1631,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1642,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1654,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1665,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1677,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1688,10 +1689,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1700,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1711,10 +1712,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1723,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1734,10 +1735,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1746,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1757,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1769,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1780,7 +1781,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1792,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1803,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1815,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1826,7 +1827,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1838,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1849,7 +1850,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1861,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1872,7 +1873,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -1884,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1898,7 +1899,7 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -1907,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1921,7 +1922,7 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1930,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1944,7 +1945,7 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -1953,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1967,7 +1968,7 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1976,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1990,7 +1991,7 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -1999,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -2010,10 +2011,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2022,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -2033,10 +2034,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2045,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -2056,10 +2057,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2068,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -2079,10 +2080,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2091,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -2102,7 +2103,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -2114,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -2125,10 +2126,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2137,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -2148,10 +2149,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2160,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -2171,10 +2172,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2183,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -2194,10 +2195,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2206,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -2217,10 +2218,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2229,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -2240,7 +2241,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -2252,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -2263,7 +2264,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -2275,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -2286,10 +2287,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2298,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -2309,7 +2310,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -2321,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -2332,7 +2333,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2344,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -2355,7 +2356,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -2367,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -2378,10 +2379,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2390,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -2404,7 +2405,7 @@
         <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -2413,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -2427,7 +2428,7 @@
         <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -2436,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -2450,7 +2451,7 @@
         <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -2459,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -2473,7 +2474,7 @@
         <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -2482,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -2496,7 +2497,7 @@
         <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -2505,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -2519,7 +2520,7 @@
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -2528,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -2542,7 +2543,7 @@
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -2551,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -2562,10 +2563,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -2574,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -2585,10 +2586,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -2597,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -2608,10 +2609,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -2620,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -2634,7 +2635,7 @@
         <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -2643,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -2657,7 +2658,7 @@
         <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -2666,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -2680,7 +2681,7 @@
         <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55">
         <v>10</v>
@@ -2689,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -2703,7 +2704,7 @@
         <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56">
         <v>10</v>
@@ -2712,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
@@ -2723,10 +2724,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57">
         <v>5</v>
@@ -2735,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -2746,10 +2747,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -2758,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2769,10 +2770,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -2781,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -2795,7 +2796,7 @@
         <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -2804,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -2818,7 +2819,7 @@
         <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E61">
         <v>10</v>
@@ -2827,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
@@ -2838,10 +2839,10 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -2850,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -2864,7 +2865,7 @@
         <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -2873,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -2884,10 +2885,10 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -2896,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
@@ -2910,7 +2911,7 @@
         <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E65">
         <v>5</v>
@@ -2919,21 +2920,21 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66">
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -2942,12 +2943,12 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>67</v>
@@ -2956,7 +2957,7 @@
         <v>35</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2965,12 +2966,12 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68">
         <v>68</v>
@@ -2979,7 +2980,7 @@
         <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2988,12 +2989,12 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69">
         <v>69</v>
@@ -3002,7 +3003,7 @@
         <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -3011,12 +3012,12 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B70">
         <v>70</v>
@@ -3025,7 +3026,7 @@
         <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70">
         <v>10</v>
@@ -3034,21 +3035,21 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71">
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -3057,12 +3058,12 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72">
         <v>72</v>
@@ -3071,7 +3072,7 @@
         <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72">
         <v>20</v>
@@ -3080,21 +3081,21 @@
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73">
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3103,21 +3104,21 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B74">
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -3126,21 +3127,21 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B75">
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -3149,12 +3150,12 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76">
         <v>76</v>
@@ -3163,7 +3164,7 @@
         <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -3172,12 +3173,12 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B77">
         <v>77</v>
@@ -3186,7 +3187,7 @@
         <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -3195,21 +3196,21 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78">
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -3218,21 +3219,21 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B79">
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -3241,21 +3242,21 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B80">
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -3264,12 +3265,12 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B81">
         <v>81</v>
@@ -3278,7 +3279,7 @@
         <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -3287,12 +3288,12 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B82">
         <v>82</v>
@@ -3301,7 +3302,7 @@
         <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -3310,21 +3311,21 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B83">
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -3333,21 +3334,21 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84">
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -3356,21 +3357,21 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B85">
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -3379,12 +3380,12 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -3393,7 +3394,7 @@
         <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -3402,12 +3403,12 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -3416,7 +3417,7 @@
         <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -3425,12 +3426,12 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -3439,7 +3440,7 @@
         <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -3448,21 +3449,21 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B89">
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -3471,12 +3472,12 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -3485,7 +3486,7 @@
         <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -3494,21 +3495,21 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -3517,12 +3518,12 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -3531,7 +3532,7 @@
         <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3540,12 +3541,12 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -3554,7 +3555,7 @@
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -3563,21 +3564,21 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B94">
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E94">
         <v>5</v>
@@ -3586,21 +3587,21 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B95">
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E95">
         <v>10</v>
@@ -3609,21 +3610,21 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B96">
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E96">
         <v>30</v>
@@ -3632,21 +3633,21 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B97">
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D97" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E97">
         <v>10</v>
@@ -3655,21 +3656,21 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B98">
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -3678,12 +3679,12 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B99">
         <v>99</v>
@@ -3692,7 +3693,7 @@
         <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E99">
         <v>10</v>
@@ -3701,12 +3702,12 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B100">
         <v>100</v>
@@ -3715,7 +3716,7 @@
         <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E100">
         <v>5</v>
@@ -3724,12 +3725,12 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B101">
         <v>101</v>
@@ -3738,7 +3739,7 @@
         <v>35</v>
       </c>
       <c r="D101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E101">
         <v>30</v>
@@ -3747,21 +3748,21 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B102">
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D102" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3770,12 +3771,12 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B103">
         <v>103</v>
@@ -3784,7 +3785,7 @@
         <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E103">
         <v>5</v>
@@ -3793,21 +3794,21 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B104">
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D104" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E104">
         <v>5</v>
@@ -3816,21 +3817,21 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B105">
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -3839,21 +3840,21 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B106">
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -3862,21 +3863,21 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B107">
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -3885,21 +3886,21 @@
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B108">
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D108" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -3908,21 +3909,21 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B109">
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E109">
         <v>5</v>
@@ -3931,21 +3932,21 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B110">
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D110" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -3954,21 +3955,21 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B111">
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -3977,21 +3978,21 @@
         <v>2</v>
       </c>
       <c r="G111" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B112">
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -4000,21 +4001,21 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B113">
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D113" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E113">
         <v>5</v>
@@ -4023,21 +4024,21 @@
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B114">
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E114">
         <v>5</v>
@@ -4046,21 +4047,21 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B115">
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D115" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -4069,21 +4070,21 @@
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B116">
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D116" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -4092,21 +4093,21 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B117">
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E117">
         <v>5</v>
@@ -4115,21 +4116,21 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B118">
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D118" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -4138,21 +4139,21 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B119">
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D119" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E119">
         <v>5</v>
@@ -4161,21 +4162,21 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B120">
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D120" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E120">
         <v>5</v>
@@ -4184,22 +4185,22 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B121">
         <v>121</v>
       </c>
       <c r="C121" t="s">
+        <v>202</v>
+      </c>
+      <c r="D121" t="s">
         <v>204</v>
       </c>
-      <c r="D121" t="s">
-        <v>206</v>
-      </c>
       <c r="E121">
         <v>5</v>
       </c>
@@ -4207,21 +4208,21 @@
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B122">
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D122" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E122">
         <v>5</v>
@@ -4230,21 +4231,21 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B123">
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D123" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E123">
         <v>5</v>
@@ -4253,21 +4254,21 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B124">
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E124">
         <v>5</v>
@@ -4276,21 +4277,21 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B125">
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D125" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E125">
         <v>5</v>
@@ -4299,12 +4300,12 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B126">
         <v>126</v>
@@ -4313,7 +4314,7 @@
         <v>35</v>
       </c>
       <c r="D126" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -4322,12 +4323,12 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B127">
         <v>127</v>
@@ -4336,7 +4337,7 @@
         <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E127">
         <v>10</v>
@@ -4345,21 +4346,21 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B128">
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D128" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -4368,21 +4369,21 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B129">
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E129">
         <v>5</v>
@@ -4391,12 +4392,12 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B130">
         <v>130</v>
@@ -4405,7 +4406,7 @@
         <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -4414,21 +4415,21 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B131">
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D131" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -4437,21 +4438,21 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B132">
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -4460,21 +4461,21 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B133">
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -4483,21 +4484,21 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B134">
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D134" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E134">
         <v>5</v>
@@ -4506,12 +4507,12 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B135">
         <v>135</v>
@@ -4520,7 +4521,7 @@
         <v>35</v>
       </c>
       <c r="D135" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E135">
         <v>10</v>
@@ -4529,12 +4530,12 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B136">
         <v>136</v>
@@ -4543,7 +4544,7 @@
         <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E136">
         <v>5</v>
@@ -4552,12 +4553,12 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B137">
         <v>137</v>
@@ -4566,7 +4567,7 @@
         <v>35</v>
       </c>
       <c r="D137" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E137">
         <v>10</v>
@@ -4575,21 +4576,21 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B138">
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D138" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -4598,21 +4599,21 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B139">
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D139" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E139">
         <v>10</v>
@@ -4621,21 +4622,21 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B140">
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D140" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E140">
         <v>10</v>
@@ -4644,21 +4645,21 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B141">
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D141" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E141">
         <v>10</v>
@@ -4667,12 +4668,12 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B142">
         <v>142</v>
@@ -4681,7 +4682,7 @@
         <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -4690,12 +4691,12 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B143">
         <v>143</v>
@@ -4704,7 +4705,7 @@
         <v>35</v>
       </c>
       <c r="D143" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E143">
         <v>10</v>
@@ -4713,12 +4714,12 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B144">
         <v>144</v>
@@ -4727,7 +4728,7 @@
         <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E144">
         <v>10</v>
@@ -4736,21 +4737,21 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B145">
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D145" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E145">
         <v>15</v>
@@ -4759,44 +4760,44 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B146">
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B147">
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D147" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E147">
         <v>10</v>
@@ -4805,21 +4806,21 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B148">
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D148" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E148">
         <v>10</v>
@@ -4828,21 +4829,21 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B149">
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D149" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E149">
         <v>5</v>
@@ -4851,12 +4852,12 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B150">
         <v>150</v>
@@ -4865,7 +4866,7 @@
         <v>35</v>
       </c>
       <c r="D150" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E150">
         <v>10</v>
@@ -4874,21 +4875,21 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B151">
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D151" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E151">
         <v>5</v>
@@ -4897,21 +4898,21 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B152">
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D152" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E152">
         <v>5</v>
@@ -4920,21 +4921,21 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B153">
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D153" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E153">
         <v>10</v>
@@ -4943,12 +4944,12 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B154">
         <v>154</v>
@@ -4957,7 +4958,7 @@
         <v>35</v>
       </c>
       <c r="D154" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E154">
         <v>15</v>
@@ -4966,12 +4967,12 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B155">
         <v>155</v>
@@ -4980,7 +4981,7 @@
         <v>35</v>
       </c>
       <c r="D155" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E155">
         <v>10</v>
@@ -4989,21 +4990,21 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B156">
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D156" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E156">
         <v>10</v>
@@ -5012,12 +5013,12 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B157">
         <v>157</v>
@@ -5026,7 +5027,7 @@
         <v>35</v>
       </c>
       <c r="D157" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E157">
         <v>15</v>
@@ -5035,21 +5036,21 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B158">
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D158" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E158">
         <v>5</v>
@@ -5058,21 +5059,21 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B159">
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D159" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -5081,21 +5082,21 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B160">
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D160" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -5104,21 +5105,21 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B161">
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D161" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E161">
         <v>10</v>
@@ -5127,12 +5128,12 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B162">
         <v>162</v>
@@ -5141,7 +5142,7 @@
         <v>35</v>
       </c>
       <c r="D162" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E162">
         <v>5</v>
@@ -5150,21 +5151,21 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B163">
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D163" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E163">
         <v>5</v>
@@ -5173,21 +5174,21 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B164">
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D164" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E164">
         <v>5</v>
@@ -5196,12 +5197,12 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B165">
         <v>165</v>
@@ -5210,7 +5211,7 @@
         <v>35</v>
       </c>
       <c r="D165" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E165">
         <v>5</v>
@@ -5219,21 +5220,21 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B166">
         <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E166">
         <v>10</v>
@@ -5242,21 +5243,21 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B167">
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D167" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E167">
         <v>10</v>
@@ -5265,21 +5266,21 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B168">
         <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D168" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E168">
         <v>10</v>
@@ -5288,21 +5289,21 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B169">
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D169" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E169">
         <v>5</v>
@@ -5311,21 +5312,21 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B170">
         <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D170" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E170">
         <v>5</v>
@@ -5334,12 +5335,12 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B171">
         <v>171</v>
@@ -5348,7 +5349,7 @@
         <v>35</v>
       </c>
       <c r="D171" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E171">
         <v>5</v>
@@ -5357,21 +5358,21 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B172">
         <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D172" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -5380,21 +5381,21 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B173">
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D173" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E173">
         <v>5</v>
@@ -5403,21 +5404,21 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B174">
         <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D174" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E174">
         <v>25</v>
@@ -5426,21 +5427,21 @@
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B175">
         <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D175" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E175">
         <v>5</v>
@@ -5449,21 +5450,21 @@
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B176">
         <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D176" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E176">
         <v>5</v>
@@ -5472,21 +5473,21 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B177">
         <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D177" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -5495,21 +5496,21 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B178">
         <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D178" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E178">
         <v>5</v>
@@ -5518,12 +5519,12 @@
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B179">
         <v>179</v>
@@ -5532,7 +5533,7 @@
         <v>35</v>
       </c>
       <c r="D179" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E179">
         <v>5</v>
@@ -5541,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5554,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ADA8F9-7DEF-4981-BAB6-4D3FA5E71785}">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E149" sqref="E2:E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5581,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -5597,6 +5598,9 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -5606,10 +5610,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -5620,10 +5627,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -5634,10 +5644,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -5648,10 +5661,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -5662,10 +5678,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -5676,10 +5695,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -5695,6 +5717,9 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
+      <c r="E9" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -5709,6 +5734,9 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -5718,10 +5746,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -5732,10 +5763,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -5746,10 +5780,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -5760,10 +5797,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -5774,10 +5814,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -5788,13 +5831,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5802,13 +5848,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -5816,13 +5865,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -5835,8 +5887,11 @@
       <c r="D19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -5849,8 +5904,11 @@
       <c r="D20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -5858,13 +5916,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -5872,13 +5933,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -5886,13 +5950,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5900,13 +5967,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5914,13 +5984,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5928,13 +6001,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -5942,13 +6018,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5956,13 +6035,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -5970,13 +6052,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5984,13 +6069,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -5998,13 +6086,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -6012,13 +6103,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -6026,13 +6120,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -6040,57 +6137,69 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>50</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>51</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -6101,276 +6210,336 @@
       <c r="D38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E56" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E57" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -6381,66 +6550,81 @@
       <c r="D58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E59" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>130</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>132</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -6451,94 +6635,115 @@
       <c r="D63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -6549,416 +6754,506 @@
       <c r="D70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E72" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E74" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E75" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E76" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E77" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E79" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E81" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E82" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E83" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E85" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E91" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E92" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E93" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E95" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E97" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E98" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E99" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -6969,248 +7264,302 @@
       <c r="D100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E100" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E101" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E102" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E103" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E104" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E105" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="D106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E107" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E108" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E110" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E111" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E112" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E113" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E114" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E115" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E117" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -7221,108 +7570,132 @@
       <c r="D118" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E118" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E119" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E120" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
         <v>224</v>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>226</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E122" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E124" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E125" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -7333,248 +7706,302 @@
       <c r="D126" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E126" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E127" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E129" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E130" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E131" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B134">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E134" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E135" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E136" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E138" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E140" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B141">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E141" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E142" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E143" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -7585,185 +8012,200 @@
       <c r="D144" t="b">
         <v>0</v>
       </c>
+      <c r="E144" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B146">
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B147">
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B151">
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B153">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>334</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B156">
         <v>155</v>
@@ -7775,131 +8217,131 @@
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>296</v>
+        <v>17</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B164">
         <v>163</v>
@@ -7911,61 +8353,62 @@
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B165">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
       <c r="C166" t="s">
+        <v>303</v>
+      </c>
+      <c r="D166" t="b">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
         <v>304</v>
-      </c>
-      <c r="D166" t="b">
-        <v>0</v>
-      </c>
-      <c r="E166" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E167" xr:uid="{A8ADA8F9-7DEF-4981-BAB6-4D3FA5E71785}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/Scores.xlsx
+++ b/Data/Scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da02ac3bab04d9c0/Documents/Paresley/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="861" documentId="8_{2EAD1506-4EA6-4B40-8F33-8570EE6731CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE88C19-08F7-4195-9709-AE2FA07C9786}"/>
+  <xr:revisionPtr revIDLastSave="876" documentId="8_{2EAD1506-4EA6-4B40-8F33-8570EE6731CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82550120-E004-4711-A37A-F925A29A894D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{F197B796-CF8D-4FAA-B522-1A8DE97E8EEA}"/>
+    <workbookView xWindow="5625" yWindow="2535" windowWidth="16875" windowHeight="10522" xr2:uid="{F197B796-CF8D-4FAA-B522-1A8DE97E8EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="343">
   <si>
     <t>id</t>
   </si>
@@ -1059,6 +1059,15 @@
   </si>
   <si>
     <t>Baseball bat</t>
+  </si>
+  <si>
+    <t>Flaming Goat</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Make it to the top of the escalator</t>
   </si>
 </sst>
 </file>
@@ -1094,9 +1103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA3B05F-F39B-4351-A3D9-B104CE3887D6}">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView topLeftCell="B106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="B160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5545,6 +5557,29 @@
         <v>304</v>
       </c>
     </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E180">
+        <v>1000</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G179" xr:uid="{6BA3B05F-F39B-4351-A3D9-B104CE3887D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5553,10 +5588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ADA8F9-7DEF-4981-BAB6-4D3FA5E71785}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E149" sqref="E2:E149"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8407,6 +8442,23 @@
         <v>304</v>
       </c>
     </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>340</v>
+      </c>
+      <c r="B168">
+        <v>166</v>
+      </c>
+      <c r="C168" t="s">
+        <v>341</v>
+      </c>
+      <c r="D168" t="b">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E167" xr:uid="{A8ADA8F9-7DEF-4981-BAB6-4D3FA5E71785}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
